--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H2">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I2">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J2">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>41670.40456813416</v>
+        <v>28872.07705945182</v>
       </c>
       <c r="R2">
-        <v>375033.6411132074</v>
+        <v>259848.6935350664</v>
       </c>
       <c r="S2">
-        <v>0.1344528337827922</v>
+        <v>0.1625839258149097</v>
       </c>
       <c r="T2">
-        <v>0.1611601177627456</v>
+        <v>0.1752000703581473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H3">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I3">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J3">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>44593.3349772939</v>
+        <v>35025.32683420261</v>
       </c>
       <c r="R3">
-        <v>401340.0147956451</v>
+        <v>315227.9415078235</v>
       </c>
       <c r="S3">
-        <v>0.1438838983605034</v>
+        <v>0.197233996290916</v>
       </c>
       <c r="T3">
-        <v>0.1724645390620944</v>
+        <v>0.2125389078532029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H4">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I4">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J4">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>22391.77031992572</v>
+        <v>19773.5327143764</v>
       </c>
       <c r="R4">
-        <v>201525.9328793314</v>
+        <v>177961.7944293876</v>
       </c>
       <c r="S4">
-        <v>0.0722488059362328</v>
+        <v>0.1113483650418707</v>
       </c>
       <c r="T4">
-        <v>0.08660007933868648</v>
+        <v>0.1199887460695787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H5">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I5">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J5">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>51027.46815389927</v>
+        <v>21564.52767862874</v>
       </c>
       <c r="R5">
-        <v>306164.8089233956</v>
+        <v>129387.1660717724</v>
       </c>
       <c r="S5">
-        <v>0.1646441344920243</v>
+        <v>0.121433783967682</v>
       </c>
       <c r="T5">
-        <v>0.13156568171976</v>
+        <v>0.08723784711334985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H6">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I6">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J6">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>25582.74482269821</v>
+        <v>21272.59949801008</v>
       </c>
       <c r="R6">
-        <v>230244.7034042839</v>
+        <v>191453.3954820907</v>
       </c>
       <c r="S6">
-        <v>0.08254473583835059</v>
+        <v>0.1197898831993635</v>
       </c>
       <c r="T6">
-        <v>0.09894116006430996</v>
+        <v>0.1290853069239771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J7">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>10836.44433999635</v>
+        <v>9559.2731671825</v>
       </c>
       <c r="R7">
-        <v>97527.99905996711</v>
+        <v>86033.45850464249</v>
       </c>
       <c r="S7">
-        <v>0.03496463892640453</v>
+        <v>0.05383000870555188</v>
       </c>
       <c r="T7">
-        <v>0.04190990378093772</v>
+        <v>0.05800709550665497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J8">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>11596.55629515514</v>
+        <v>11596.55629515513</v>
       </c>
       <c r="R8">
         <v>104369.0066563962</v>
       </c>
       <c r="S8">
-        <v>0.03741719986077642</v>
+        <v>0.06530232114986338</v>
       </c>
       <c r="T8">
-        <v>0.04484963363179543</v>
+        <v>0.07036963342262467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J9">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>5823.0097658186</v>
+        <v>6546.830708013235</v>
       </c>
       <c r="R9">
-        <v>52407.0878923674</v>
+        <v>58921.47637211911</v>
       </c>
       <c r="S9">
-        <v>0.01878839843945005</v>
+        <v>0.03686639641348359</v>
       </c>
       <c r="T9">
-        <v>0.02252046624741861</v>
+        <v>0.03972714530738287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J10">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>13269.76121761769</v>
+        <v>7139.812296039705</v>
       </c>
       <c r="R10">
-        <v>79618.56730570612</v>
+        <v>42838.87377623823</v>
       </c>
       <c r="S10">
-        <v>0.04281592698272142</v>
+        <v>0.04020558376459733</v>
       </c>
       <c r="T10">
-        <v>0.03421383117792206</v>
+        <v>0.02888363069121179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J11">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>6652.826945373523</v>
+        <v>7043.157621075169</v>
       </c>
       <c r="R11">
-        <v>59875.44250836171</v>
+        <v>63388.41858967653</v>
       </c>
       <c r="S11">
-        <v>0.02146586875607193</v>
+        <v>0.03966130368139654</v>
       </c>
       <c r="T11">
-        <v>0.02572978076607074</v>
+        <v>0.04273893105144407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H12">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I12">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J12">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>90.58611629181691</v>
+        <v>76.878671085932</v>
       </c>
       <c r="R12">
-        <v>815.275046626352</v>
+        <v>691.9080397733879</v>
       </c>
       <c r="S12">
-        <v>0.0002922832202624257</v>
+        <v>0.0004329178025829682</v>
       </c>
       <c r="T12">
-        <v>0.0003503414310602328</v>
+        <v>0.0004665112439108973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H13">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I13">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J13">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>96.94019220495335</v>
+        <v>93.26314057070665</v>
       </c>
       <c r="R13">
-        <v>872.4617298445801</v>
+        <v>839.3682651363599</v>
       </c>
       <c r="S13">
-        <v>0.0003127851453444176</v>
+        <v>0.0005251817351619786</v>
       </c>
       <c r="T13">
-        <v>0.0003749157934415757</v>
+        <v>0.0005659346487668257</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H14">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I14">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J14">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>48.67683746299822</v>
+        <v>52.65166460401245</v>
       </c>
       <c r="R14">
-        <v>438.091537166984</v>
+        <v>473.864981436112</v>
       </c>
       <c r="S14">
-        <v>0.0001570596399126236</v>
+        <v>0.0002964911154255833</v>
       </c>
       <c r="T14">
-        <v>0.0001882574680797269</v>
+        <v>0.0003194981547085029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H15">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I15">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J15">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>110.927172706187</v>
+        <v>57.42060840011668</v>
       </c>
       <c r="R15">
-        <v>665.5630362371221</v>
+        <v>344.5236504007</v>
       </c>
       <c r="S15">
-        <v>0.0003579152366873184</v>
+        <v>0.0003233459067440159</v>
       </c>
       <c r="T15">
-        <v>0.0002860069218860476</v>
+        <v>0.0002322912113548987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H16">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I16">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J16">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>55.61360686536246</v>
+        <v>56.64328120844</v>
       </c>
       <c r="R16">
-        <v>500.5224617882621</v>
+        <v>509.78953087596</v>
       </c>
       <c r="S16">
-        <v>0.0001794416713114466</v>
+        <v>0.0003189686357148053</v>
       </c>
       <c r="T16">
-        <v>0.0002150853951268505</v>
+        <v>0.0003437198796816814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H17">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I17">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J17">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>17019.01950318825</v>
+        <v>1958.147382801291</v>
       </c>
       <c r="R17">
-        <v>102114.1170191295</v>
+        <v>11748.88429680774</v>
       </c>
       <c r="S17">
-        <v>0.05491320336635572</v>
+        <v>0.01102668464636154</v>
       </c>
       <c r="T17">
-        <v>0.04388065847957913</v>
+        <v>0.007921553606551687</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H18">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I18">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J18">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>18212.80224073317</v>
+        <v>2375.46997158977</v>
       </c>
       <c r="R18">
-        <v>109276.813444399</v>
+        <v>14252.81982953862</v>
       </c>
       <c r="S18">
-        <v>0.05876503714736576</v>
+        <v>0.01337670417134269</v>
       </c>
       <c r="T18">
-        <v>0.0469586250213774</v>
+        <v>0.009609804086239066</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H19">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I19">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J19">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>9145.243002443716</v>
+        <v>1341.070517845417</v>
       </c>
       <c r="R19">
-        <v>54871.4580146623</v>
+        <v>8046.423107072504</v>
       </c>
       <c r="S19">
-        <v>0.02950784495745216</v>
+        <v>0.007551812401199015</v>
       </c>
       <c r="T19">
-        <v>0.02357945972315363</v>
+        <v>0.0054252106305098</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H20">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I20">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J20">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>20840.62981173053</v>
+        <v>1462.538470935163</v>
       </c>
       <c r="R20">
-        <v>83362.51924692214</v>
+        <v>5850.153883740651</v>
       </c>
       <c r="S20">
-        <v>0.06724392923576496</v>
+        <v>0.008235820573987087</v>
       </c>
       <c r="T20">
-        <v>0.03582268880987593</v>
+        <v>0.003944400712944262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H21">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I21">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J21">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>10448.50026283497</v>
+        <v>1442.73946576947</v>
       </c>
       <c r="R21">
-        <v>62691.00157700979</v>
+        <v>8656.43679461682</v>
       </c>
       <c r="S21">
-        <v>0.0337129068862629</v>
+        <v>0.008124328768931302</v>
       </c>
       <c r="T21">
-        <v>0.02693968777527773</v>
+        <v>0.005836505524947183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H22">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I22">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J22">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>92.79361330367556</v>
+        <v>62.096762342006</v>
       </c>
       <c r="R22">
-        <v>835.14251973308</v>
+        <v>558.870861078054</v>
       </c>
       <c r="S22">
-        <v>0.0002994058827824439</v>
+        <v>0.0003496781814889789</v>
       </c>
       <c r="T22">
-        <v>0.0003588789166469244</v>
+        <v>0.000376812416679632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H23">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I23">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J23">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>99.30253196938334</v>
+        <v>75.33089468748665</v>
       </c>
       <c r="R23">
-        <v>893.72278772445</v>
+        <v>677.9780521873799</v>
       </c>
       <c r="S23">
-        <v>0.0003204074201693728</v>
+        <v>0.0004242019917105902</v>
       </c>
       <c r="T23">
-        <v>0.0003840521327350581</v>
+        <v>0.0004571191058479543</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H24">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I24">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J24">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>49.86304543442888</v>
+        <v>42.52802315185511</v>
       </c>
       <c r="R24">
-        <v>448.76740890986</v>
+        <v>382.752208366696</v>
       </c>
       <c r="S24">
-        <v>0.0001608870331157256</v>
+        <v>0.0002394830460911513</v>
       </c>
       <c r="T24">
-        <v>0.0001928451225157259</v>
+        <v>0.0002580663882634913</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H25">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I25">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J25">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>113.6303618074175</v>
+        <v>46.38001441739167</v>
       </c>
       <c r="R25">
-        <v>681.782170844505</v>
+        <v>278.28008650435</v>
       </c>
       <c r="S25">
-        <v>0.0003666372886730852</v>
+        <v>0.0002611743106602396</v>
       </c>
       <c r="T25">
-        <v>0.000292976637017674</v>
+        <v>0.0001876272305685233</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H26">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I26">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J26">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>56.96885727237279</v>
+        <v>45.75214844102</v>
       </c>
       <c r="R26">
-        <v>512.719715451355</v>
+        <v>411.76933596918</v>
       </c>
       <c r="S26">
-        <v>0.0001838144932121767</v>
+        <v>0.0002576386829631426</v>
       </c>
       <c r="T26">
-        <v>0.0002203268204850967</v>
+        <v>0.0002776308614512716</v>
       </c>
     </row>
   </sheetData>
